--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Comp-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Comp-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Comp</t>
+  </si>
+  <si>
+    <t>Itga5</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Comp</t>
-  </si>
-  <si>
-    <t>Itga5</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.820229</v>
+        <v>0.417308</v>
       </c>
       <c r="H2">
-        <v>1.640458</v>
+        <v>0.834616</v>
       </c>
       <c r="I2">
-        <v>0.06307660610589233</v>
+        <v>0.0365030588402487</v>
       </c>
       <c r="J2">
-        <v>0.04362238496983823</v>
+        <v>0.02503460188982125</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N2">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O2">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P2">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q2">
-        <v>38.931465728518</v>
+        <v>17.92786257446</v>
       </c>
       <c r="R2">
-        <v>155.725862914072</v>
+        <v>71.71145029784</v>
       </c>
       <c r="S2">
-        <v>0.01414480862358023</v>
+        <v>0.007042863652751167</v>
       </c>
       <c r="T2">
-        <v>0.007184386879246983</v>
+        <v>0.003534249747468726</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.820229</v>
+        <v>0.417308</v>
       </c>
       <c r="H3">
-        <v>1.640458</v>
+        <v>0.834616</v>
       </c>
       <c r="I3">
-        <v>0.06307660610589233</v>
+        <v>0.0365030588402487</v>
       </c>
       <c r="J3">
-        <v>0.04362238496983823</v>
+        <v>0.02503460188982125</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>209.931938</v>
       </c>
       <c r="O3">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P3">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q3">
-        <v>57.39742119126733</v>
+        <v>29.20209239430133</v>
       </c>
       <c r="R3">
-        <v>344.384527147604</v>
+        <v>175.212554365808</v>
       </c>
       <c r="S3">
-        <v>0.02085396794199791</v>
+        <v>0.01147188373705508</v>
       </c>
       <c r="T3">
-        <v>0.01588812308986952</v>
+        <v>0.008635230823652152</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.820229</v>
+        <v>0.417308</v>
       </c>
       <c r="H4">
-        <v>1.640458</v>
+        <v>0.834616</v>
       </c>
       <c r="I4">
-        <v>0.06307660610589233</v>
+        <v>0.0365030588402487</v>
       </c>
       <c r="J4">
-        <v>0.04362238496983823</v>
+        <v>0.02503460188982125</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N4">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O4">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P4">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q4">
-        <v>27.14190228315033</v>
+        <v>15.99654626647467</v>
       </c>
       <c r="R4">
-        <v>162.851413698902</v>
+        <v>95.97927759884801</v>
       </c>
       <c r="S4">
-        <v>0.009861355237746689</v>
+        <v>0.006284156507881992</v>
       </c>
       <c r="T4">
-        <v>0.007513122983886122</v>
+        <v>0.00473027300671085</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.820229</v>
+        <v>0.417308</v>
       </c>
       <c r="H5">
-        <v>1.640458</v>
+        <v>0.834616</v>
       </c>
       <c r="I5">
-        <v>0.06307660610589233</v>
+        <v>0.0365030588402487</v>
       </c>
       <c r="J5">
-        <v>0.04362238496983823</v>
+        <v>0.02503460188982125</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N5">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O5">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P5">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q5">
-        <v>9.124664988171501</v>
+        <v>6.850252496066001</v>
       </c>
       <c r="R5">
-        <v>36.498659952686</v>
+        <v>27.401009984264</v>
       </c>
       <c r="S5">
-        <v>0.003315226837643187</v>
+        <v>0.002691084568298816</v>
       </c>
       <c r="T5">
-        <v>0.001683859628498994</v>
+        <v>0.001350440023386196</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.820229</v>
+        <v>0.417308</v>
       </c>
       <c r="H6">
-        <v>1.640458</v>
+        <v>0.834616</v>
       </c>
       <c r="I6">
-        <v>0.06307660610589233</v>
+        <v>0.0365030588402487</v>
       </c>
       <c r="J6">
-        <v>0.04362238496983823</v>
+        <v>0.02503460188982125</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N6">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O6">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P6">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q6">
-        <v>21.03885935928767</v>
+        <v>10.88735901343733</v>
       </c>
       <c r="R6">
-        <v>126.233156155726</v>
+        <v>65.32415408062401</v>
       </c>
       <c r="S6">
-        <v>0.007643961862898814</v>
+        <v>0.004277039984645252</v>
       </c>
       <c r="T6">
-        <v>0.005823745740369126</v>
+        <v>0.003219456224970638</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.820229</v>
+        <v>0.417308</v>
       </c>
       <c r="H7">
-        <v>1.640458</v>
+        <v>0.834616</v>
       </c>
       <c r="I7">
-        <v>0.06307660610589233</v>
+        <v>0.0365030588402487</v>
       </c>
       <c r="J7">
-        <v>0.04362238496983823</v>
+        <v>0.02503460188982125</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N7">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O7">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P7">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q7">
-        <v>19.97459090583367</v>
+        <v>12.055735587092</v>
       </c>
       <c r="R7">
-        <v>119.847545435002</v>
+        <v>72.33441352255201</v>
       </c>
       <c r="S7">
-        <v>0.007257285602025508</v>
+        <v>0.004736030389616396</v>
       </c>
       <c r="T7">
-        <v>0.005529146647967483</v>
+        <v>0.00356495206363269</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>31.229245</v>
       </c>
       <c r="I8">
-        <v>0.8005222874138025</v>
+        <v>0.9105688266792094</v>
       </c>
       <c r="J8">
-        <v>0.8304352490020444</v>
+        <v>0.9367322408085764</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N8">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O8">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P8">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q8">
-        <v>494.0897730775966</v>
+        <v>447.2105436625084</v>
       </c>
       <c r="R8">
-        <v>2964.53863846558</v>
+        <v>2683.26326197505</v>
       </c>
       <c r="S8">
-        <v>0.1795155962476738</v>
+        <v>0.175684238430896</v>
       </c>
       <c r="T8">
-        <v>0.1367684988136176</v>
+        <v>0.1322427933982681</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>31.229245</v>
       </c>
       <c r="I9">
-        <v>0.8005222874138025</v>
+        <v>0.9105688266792094</v>
       </c>
       <c r="J9">
-        <v>0.8304352490020444</v>
+        <v>0.9367322408085764</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>209.931938</v>
       </c>
       <c r="O9">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P9">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q9">
         <v>728.4462139029788</v>
@@ -1013,10 +1013,10 @@
         <v>6556.01592512681</v>
       </c>
       <c r="S9">
-        <v>0.2646633538043637</v>
+        <v>0.2861661473348291</v>
       </c>
       <c r="T9">
-        <v>0.3024607082678692</v>
+        <v>0.3231087578280129</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>31.229245</v>
       </c>
       <c r="I10">
-        <v>0.8005222874138025</v>
+        <v>0.9105688266792094</v>
       </c>
       <c r="J10">
-        <v>0.8304352490020444</v>
+        <v>0.9367322408085764</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N10">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O10">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P10">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q10">
-        <v>344.4652311190172</v>
+        <v>399.0338570948178</v>
       </c>
       <c r="R10">
-        <v>3100.187080071155</v>
+        <v>3591.30471385336</v>
       </c>
       <c r="S10">
-        <v>0.125153129492546</v>
+        <v>0.1567582882051875</v>
       </c>
       <c r="T10">
-        <v>0.1430266171879504</v>
+        <v>0.1769949948760385</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>31.229245</v>
       </c>
       <c r="I11">
-        <v>0.8005222874138025</v>
+        <v>0.9105688266792094</v>
       </c>
       <c r="J11">
-        <v>0.8304352490020444</v>
+        <v>0.9367322408085764</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N11">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O11">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P11">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q11">
-        <v>115.8035940607358</v>
+        <v>170.8795530012258</v>
       </c>
       <c r="R11">
-        <v>694.8215643644151</v>
+        <v>1025.277318007355</v>
       </c>
       <c r="S11">
-        <v>0.0420744414642473</v>
+        <v>0.06712910631885237</v>
       </c>
       <c r="T11">
-        <v>0.03205547772878311</v>
+        <v>0.05053009090184377</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>31.229245</v>
       </c>
       <c r="I12">
-        <v>0.8005222874138025</v>
+        <v>0.9105688266792094</v>
       </c>
       <c r="J12">
-        <v>0.8304352490020444</v>
+        <v>0.9367322408085764</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N12">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O12">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P12">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q12">
-        <v>267.0098608444462</v>
+        <v>271.5851777213256</v>
       </c>
       <c r="R12">
-        <v>2403.088747600015</v>
+        <v>2444.26659949193</v>
       </c>
       <c r="S12">
-        <v>0.09701158976624148</v>
+        <v>0.1066907652184021</v>
       </c>
       <c r="T12">
-        <v>0.1108661011398608</v>
+        <v>0.1204640064609152</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>31.229245</v>
       </c>
       <c r="I13">
-        <v>0.8005222874138025</v>
+        <v>0.9105688266792094</v>
       </c>
       <c r="J13">
-        <v>0.8304352490020444</v>
+        <v>0.9367322408085764</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N13">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O13">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P13">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q13">
-        <v>253.5029417284894</v>
+        <v>300.7303321164184</v>
       </c>
       <c r="R13">
-        <v>2281.526475556405</v>
+        <v>2706.572989047765</v>
       </c>
       <c r="S13">
-        <v>0.09210417663873019</v>
+        <v>0.1181402811710422</v>
       </c>
       <c r="T13">
-        <v>0.1052578458639632</v>
+        <v>0.1333915973434979</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1017343333333333</v>
+        <v>0.03891033333333333</v>
       </c>
       <c r="H14">
-        <v>0.305203</v>
+        <v>0.116731</v>
       </c>
       <c r="I14">
-        <v>0.007823493769559743</v>
+        <v>0.003403592040316402</v>
       </c>
       <c r="J14">
-        <v>0.008115832749116123</v>
+        <v>0.003501387600046877</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N14">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O14">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P14">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q14">
-        <v>4.828732843608667</v>
+        <v>1.671616908198333</v>
       </c>
       <c r="R14">
-        <v>28.972397061652</v>
+        <v>10.02970144919</v>
       </c>
       <c r="S14">
-        <v>0.001754403557357175</v>
+        <v>0.0006566856430975813</v>
       </c>
       <c r="T14">
-        <v>0.001336636737244609</v>
+        <v>0.0004943069714356924</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1017343333333333</v>
+        <v>0.03891033333333333</v>
       </c>
       <c r="H15">
-        <v>0.305203</v>
+        <v>0.116731</v>
       </c>
       <c r="I15">
-        <v>0.007823493769559743</v>
+        <v>0.003403592040316402</v>
       </c>
       <c r="J15">
-        <v>0.008115832749116123</v>
+        <v>0.003501387600046877</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>209.931938</v>
       </c>
       <c r="O15">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P15">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q15">
-        <v>7.119095252601555</v>
+        <v>2.722840561630889</v>
       </c>
       <c r="R15">
-        <v>64.071857273414</v>
+        <v>24.505565054678</v>
       </c>
       <c r="S15">
-        <v>0.002586551470301419</v>
+        <v>0.001069653158266937</v>
       </c>
       <c r="T15">
-        <v>0.002955944517566098</v>
+        <v>0.001207740001720239</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1017343333333333</v>
+        <v>0.03891033333333333</v>
       </c>
       <c r="H16">
-        <v>0.305203</v>
+        <v>0.116731</v>
       </c>
       <c r="I16">
-        <v>0.007823493769559743</v>
+        <v>0.003403592040316402</v>
       </c>
       <c r="J16">
-        <v>0.008115832749116123</v>
+        <v>0.003501387600046877</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N16">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O16">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P16">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q16">
-        <v>3.366454166061889</v>
+        <v>1.491538497729778</v>
       </c>
       <c r="R16">
-        <v>30.298087494557</v>
+        <v>13.423846479568</v>
       </c>
       <c r="S16">
-        <v>0.001223119885879839</v>
+        <v>0.000585942815475678</v>
       </c>
       <c r="T16">
-        <v>0.001397797245678339</v>
+        <v>0.0006615850862508796</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1017343333333333</v>
+        <v>0.03891033333333333</v>
       </c>
       <c r="H17">
-        <v>0.305203</v>
+        <v>0.116731</v>
       </c>
       <c r="I17">
-        <v>0.007823493769559743</v>
+        <v>0.003403592040316402</v>
       </c>
       <c r="J17">
-        <v>0.008115832749116123</v>
+        <v>0.003501387600046877</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N17">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O17">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P17">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q17">
-        <v>1.131746999266833</v>
+        <v>0.6387263317248334</v>
       </c>
       <c r="R17">
-        <v>6.790481995601001</v>
+        <v>3.832357990349001</v>
       </c>
       <c r="S17">
-        <v>0.0004111929621805672</v>
+        <v>0.0002509201778559154</v>
       </c>
       <c r="T17">
-        <v>0.0003132777615743765</v>
+        <v>0.0001888751406274191</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.1017343333333333</v>
+        <v>0.03891033333333333</v>
       </c>
       <c r="H18">
-        <v>0.305203</v>
+        <v>0.116731</v>
       </c>
       <c r="I18">
-        <v>0.007823493769559743</v>
+        <v>0.003403592040316402</v>
       </c>
       <c r="J18">
-        <v>0.008115832749116123</v>
+        <v>0.003501387600046877</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N18">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O18">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P18">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q18">
-        <v>2.609483852693445</v>
+        <v>1.015151323081556</v>
       </c>
       <c r="R18">
-        <v>23.485354674241</v>
+        <v>9.136361907734001</v>
       </c>
       <c r="S18">
-        <v>0.0009480929888451098</v>
+        <v>0.000398796695684103</v>
       </c>
       <c r="T18">
-        <v>0.001083492945993057</v>
+        <v>0.0004502793435508636</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.1017343333333333</v>
+        <v>0.03891033333333333</v>
       </c>
       <c r="H19">
-        <v>0.305203</v>
+        <v>0.116731</v>
       </c>
       <c r="I19">
-        <v>0.007823493769559743</v>
+        <v>0.003403592040316402</v>
       </c>
       <c r="J19">
-        <v>0.008115832749116123</v>
+        <v>0.003501387600046877</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N19">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O19">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P19">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q19">
-        <v>2.477480910100778</v>
+        <v>1.124092253856333</v>
       </c>
       <c r="R19">
-        <v>22.297328190907</v>
+        <v>10.116830284707</v>
       </c>
       <c r="S19">
-        <v>0.0009001329049956338</v>
+        <v>0.0004415935499361874</v>
       </c>
       <c r="T19">
-        <v>0.001028683541059643</v>
+        <v>0.000498601056461783</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.5849825</v>
+        <v>0.5406085</v>
       </c>
       <c r="H20">
-        <v>1.169965</v>
+        <v>1.081217</v>
       </c>
       <c r="I20">
-        <v>0.04498586459554607</v>
+        <v>0.0472884868850791</v>
       </c>
       <c r="J20">
-        <v>0.0311112284686574</v>
+        <v>0.03243148603849778</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N20">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O20">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P20">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q20">
-        <v>27.765692447515</v>
+        <v>23.2249439133325</v>
       </c>
       <c r="R20">
-        <v>111.06276979006</v>
+        <v>92.89977565333001</v>
       </c>
       <c r="S20">
-        <v>0.01008799434138944</v>
+        <v>0.009123793349320716</v>
       </c>
       <c r="T20">
-        <v>0.005123862479367466</v>
+        <v>0.004578501860986243</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.5849825</v>
+        <v>0.5406085</v>
       </c>
       <c r="H21">
-        <v>1.169965</v>
+        <v>1.081217</v>
       </c>
       <c r="I21">
-        <v>0.04498586459554607</v>
+        <v>0.0472884868850791</v>
       </c>
       <c r="J21">
-        <v>0.0311112284686574</v>
+        <v>0.03243148603849778</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>209.931938</v>
       </c>
       <c r="O21">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P21">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q21">
-        <v>40.93550330702833</v>
+        <v>37.83033003475767</v>
       </c>
       <c r="R21">
-        <v>245.61301984217</v>
+        <v>226.981980208546</v>
       </c>
       <c r="S21">
-        <v>0.01487292731862662</v>
+        <v>0.01486144013357938</v>
       </c>
       <c r="T21">
-        <v>0.01133131596836931</v>
+        <v>0.01118665154449077</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.5849825</v>
+        <v>0.5406085</v>
       </c>
       <c r="H22">
-        <v>1.169965</v>
+        <v>1.081217</v>
       </c>
       <c r="I22">
-        <v>0.04498586459554607</v>
+        <v>0.0472884868850791</v>
       </c>
       <c r="J22">
-        <v>0.0311112284686574</v>
+        <v>0.03243148603849778</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N22">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O22">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P22">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q22">
-        <v>19.35744511880583</v>
+        <v>20.72298849362933</v>
       </c>
       <c r="R22">
-        <v>116.144670712835</v>
+        <v>124.337930961776</v>
       </c>
       <c r="S22">
-        <v>0.007033060572553705</v>
+        <v>0.008140913721978303</v>
       </c>
       <c r="T22">
-        <v>0.005358315136286529</v>
+        <v>0.006127909828588099</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.5849825</v>
+        <v>0.5406085</v>
       </c>
       <c r="H23">
-        <v>1.169965</v>
+        <v>1.081217</v>
       </c>
       <c r="I23">
-        <v>0.04498586459554607</v>
+        <v>0.0472884868850791</v>
       </c>
       <c r="J23">
-        <v>0.0311112284686574</v>
+        <v>0.03243148603849778</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N23">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O23">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P23">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q23">
-        <v>6.507657418163751</v>
+        <v>8.874272064085751</v>
       </c>
       <c r="R23">
-        <v>26.030629672655</v>
+        <v>35.49708825634301</v>
       </c>
       <c r="S23">
-        <v>0.002364400287665524</v>
+        <v>0.003486209686469395</v>
       </c>
       <c r="T23">
-        <v>0.00120091878625166</v>
+        <v>0.001749449699940515</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.5849825</v>
+        <v>0.5406085</v>
       </c>
       <c r="H24">
-        <v>1.169965</v>
+        <v>1.081217</v>
       </c>
       <c r="I24">
-        <v>0.04498586459554607</v>
+        <v>0.0472884868850791</v>
       </c>
       <c r="J24">
-        <v>0.0311112284686574</v>
+        <v>0.03243148603849778</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N24">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O24">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P24">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q24">
-        <v>15.00479079030917</v>
+        <v>14.10420798358967</v>
       </c>
       <c r="R24">
-        <v>90.02874474185501</v>
+        <v>84.62524790153802</v>
       </c>
       <c r="S24">
-        <v>0.005451628655489145</v>
+        <v>0.005540761668933002</v>
       </c>
       <c r="T24">
-        <v>0.00415346121944662</v>
+        <v>0.004170697423957938</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.5849825</v>
+        <v>0.5406085</v>
       </c>
       <c r="H25">
-        <v>1.169965</v>
+        <v>1.081217</v>
       </c>
       <c r="I25">
-        <v>0.04498586459554607</v>
+        <v>0.0472884868850791</v>
       </c>
       <c r="J25">
-        <v>0.0311112284686574</v>
+        <v>0.03243148603849778</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N25">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O25">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P25">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q25">
-        <v>14.24576078701416</v>
+        <v>15.6178005984415</v>
       </c>
       <c r="R25">
-        <v>85.47456472208499</v>
+        <v>93.70680359064902</v>
       </c>
       <c r="S25">
-        <v>0.005175853419821644</v>
+        <v>0.006135368324798315</v>
       </c>
       <c r="T25">
-        <v>0.003943354878935807</v>
+        <v>0.004618275680534217</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.798925</v>
+        <v>0.02556266666666667</v>
       </c>
       <c r="H26">
-        <v>2.396775</v>
+        <v>0.07668800000000001</v>
       </c>
       <c r="I26">
-        <v>0.06143830263639792</v>
+        <v>0.002236035555146313</v>
       </c>
       <c r="J26">
-        <v>0.06373405581617086</v>
+        <v>0.002300283663057756</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N26">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O26">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P26">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q26">
-        <v>37.92028964735</v>
+        <v>1.098191204186667</v>
       </c>
       <c r="R26">
-        <v>227.5217378841</v>
+        <v>6.589147225120001</v>
       </c>
       <c r="S26">
-        <v>0.01377742219501363</v>
+        <v>0.0004314184629435825</v>
       </c>
       <c r="T26">
-        <v>0.01049667767325173</v>
+        <v>0.0003247416112725872</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.798925</v>
+        <v>0.02556266666666667</v>
       </c>
       <c r="H27">
-        <v>2.396775</v>
+        <v>0.07668800000000001</v>
       </c>
       <c r="I27">
-        <v>0.06143830263639792</v>
+        <v>0.002236035555146313</v>
       </c>
       <c r="J27">
-        <v>0.06373405581617086</v>
+        <v>0.002300283663057756</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>209.931938</v>
       </c>
       <c r="O27">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P27">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q27">
-        <v>55.90662452221666</v>
+        <v>1.788806717927111</v>
       </c>
       <c r="R27">
-        <v>503.15962069995</v>
+        <v>16.099260461344</v>
       </c>
       <c r="S27">
-        <v>0.02031232294647065</v>
+        <v>0.000702723024742141</v>
       </c>
       <c r="T27">
-        <v>0.02321318571930645</v>
+        <v>0.0007934410332467102</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.798925</v>
+        <v>0.02556266666666667</v>
       </c>
       <c r="H28">
-        <v>2.396775</v>
+        <v>0.07668800000000001</v>
       </c>
       <c r="I28">
-        <v>0.06143830263639792</v>
+        <v>0.002236035555146313</v>
       </c>
       <c r="J28">
-        <v>0.06373405581617086</v>
+        <v>0.002300283663057756</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N28">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O28">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P28">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q28">
-        <v>26.43693929569167</v>
+        <v>0.9798862711182222</v>
       </c>
       <c r="R28">
-        <v>237.932453661225</v>
+        <v>8.818976440064</v>
       </c>
       <c r="S28">
-        <v>0.009605223947600943</v>
+        <v>0.0003849430111384191</v>
       </c>
       <c r="T28">
-        <v>0.01097697432040544</v>
+        <v>0.0004346372180004237</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.798925</v>
+        <v>0.02556266666666667</v>
       </c>
       <c r="H29">
-        <v>2.396775</v>
+        <v>0.07668800000000001</v>
       </c>
       <c r="I29">
-        <v>0.06143830263639792</v>
+        <v>0.002236035555146313</v>
       </c>
       <c r="J29">
-        <v>0.06373405581617086</v>
+        <v>0.002300283663057756</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N29">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O29">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P29">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q29">
-        <v>8.887667926487502</v>
+        <v>0.4196198518586667</v>
       </c>
       <c r="R29">
-        <v>53.32600755892501</v>
+        <v>2.517719111152001</v>
       </c>
       <c r="S29">
-        <v>0.003229119674217911</v>
+        <v>0.0001648453846828558</v>
       </c>
       <c r="T29">
-        <v>0.002460186521749217</v>
+        <v>0.0001240840632260112</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>27</v>
       </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.798925</v>
+        <v>0.02556266666666667</v>
       </c>
       <c r="H30">
-        <v>2.396775</v>
+        <v>0.07668800000000001</v>
       </c>
       <c r="I30">
-        <v>0.06143830263639792</v>
+        <v>0.002236035555146313</v>
       </c>
       <c r="J30">
-        <v>0.06373405581617086</v>
+        <v>0.002300283663057756</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N30">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O30">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P30">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q30">
-        <v>20.49241213565834</v>
+        <v>0.6669173112924446</v>
       </c>
       <c r="R30">
-        <v>184.431709220925</v>
+        <v>6.002255801632002</v>
       </c>
       <c r="S30">
-        <v>0.007445423450422303</v>
+        <v>0.0002619948513987072</v>
       </c>
       <c r="T30">
-        <v>0.00850872634159071</v>
+        <v>0.0002958170691438318</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.798925</v>
+        <v>0.02556266666666667</v>
       </c>
       <c r="H31">
-        <v>2.396775</v>
+        <v>0.07668800000000001</v>
       </c>
       <c r="I31">
-        <v>0.06143830263639792</v>
+        <v>0.002236035555146313</v>
       </c>
       <c r="J31">
-        <v>0.06373405581617086</v>
+        <v>0.002300283663057756</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N31">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O31">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P31">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q31">
-        <v>19.45578617610833</v>
+        <v>0.7384875205706668</v>
       </c>
       <c r="R31">
-        <v>175.102075584975</v>
+        <v>6.646387685136001</v>
       </c>
       <c r="S31">
-        <v>0.007068790422672485</v>
+        <v>0.0002901108202406074</v>
       </c>
       <c r="T31">
-        <v>0.00807830523986732</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>0.2880766666666667</v>
-      </c>
-      <c r="H32">
-        <v>0.8642300000000001</v>
-      </c>
-      <c r="I32">
-        <v>0.02215344547880138</v>
-      </c>
-      <c r="J32">
-        <v>0.02298124899417315</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>47.464142</v>
-      </c>
-      <c r="N32">
-        <v>94.928284</v>
-      </c>
-      <c r="O32">
-        <v>0.2242480928640021</v>
-      </c>
-      <c r="P32">
-        <v>0.1646949584305047</v>
-      </c>
-      <c r="Q32">
-        <v>13.67331181355333</v>
-      </c>
-      <c r="R32">
-        <v>82.03987088132001</v>
-      </c>
-      <c r="S32">
-        <v>0.004967867898987861</v>
-      </c>
-      <c r="T32">
-        <v>0.003784895847776426</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>0.2880766666666667</v>
-      </c>
-      <c r="H33">
-        <v>0.8642300000000001</v>
-      </c>
-      <c r="I33">
-        <v>0.02215344547880138</v>
-      </c>
-      <c r="J33">
-        <v>0.02298124899417315</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>69.97731266666666</v>
-      </c>
-      <c r="N33">
-        <v>209.931938</v>
-      </c>
-      <c r="O33">
-        <v>0.3306133482671609</v>
-      </c>
-      <c r="P33">
-        <v>0.364219496500593</v>
-      </c>
-      <c r="Q33">
-        <v>20.15883097530445</v>
-      </c>
-      <c r="R33">
-        <v>181.42947877774</v>
-      </c>
-      <c r="S33">
-        <v>0.007324224785400521</v>
-      </c>
-      <c r="T33">
-        <v>0.008370218937612505</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>0.2880766666666667</v>
-      </c>
-      <c r="H34">
-        <v>0.8642300000000001</v>
-      </c>
-      <c r="I34">
-        <v>0.02215344547880138</v>
-      </c>
-      <c r="J34">
-        <v>0.02298124899417315</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>33.09063966666667</v>
-      </c>
-      <c r="N34">
-        <v>99.271919</v>
-      </c>
-      <c r="O34">
-        <v>0.1563393442759357</v>
-      </c>
-      <c r="P34">
-        <v>0.1722309082614559</v>
-      </c>
-      <c r="Q34">
-        <v>9.532641173041112</v>
-      </c>
-      <c r="R34">
-        <v>85.79377055737</v>
-      </c>
-      <c r="S34">
-        <v>0.0034634551396085</v>
-      </c>
-      <c r="T34">
-        <v>0.003958081387249112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>0.2880766666666667</v>
-      </c>
-      <c r="H35">
-        <v>0.8642300000000001</v>
-      </c>
-      <c r="I35">
-        <v>0.02215344547880138</v>
-      </c>
-      <c r="J35">
-        <v>0.02298124899417315</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>11.1245335</v>
-      </c>
-      <c r="N35">
-        <v>22.249067</v>
-      </c>
-      <c r="O35">
-        <v>0.05255873837088856</v>
-      </c>
-      <c r="P35">
-        <v>0.03860081537640052</v>
-      </c>
-      <c r="Q35">
-        <v>3.204718528901668</v>
-      </c>
-      <c r="R35">
-        <v>19.22831117341001</v>
-      </c>
-      <c r="S35">
-        <v>0.001164357144934066</v>
-      </c>
-      <c r="T35">
-        <v>0.0008870949495431679</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>0.2880766666666667</v>
-      </c>
-      <c r="H36">
-        <v>0.8642300000000001</v>
-      </c>
-      <c r="I36">
-        <v>0.02215344547880138</v>
-      </c>
-      <c r="J36">
-        <v>0.02298124899417315</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>25.64998233333334</v>
-      </c>
-      <c r="N36">
-        <v>76.94994700000001</v>
-      </c>
-      <c r="O36">
-        <v>0.121185370215801</v>
-      </c>
-      <c r="P36">
-        <v>0.1335036070218497</v>
-      </c>
-      <c r="Q36">
-        <v>7.389161410645558</v>
-      </c>
-      <c r="R36">
-        <v>66.50245269581001</v>
-      </c>
-      <c r="S36">
-        <v>0.002684673491904108</v>
-      </c>
-      <c r="T36">
-        <v>0.003068079634589371</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>0.2880766666666667</v>
-      </c>
-      <c r="H37">
-        <v>0.8642300000000001</v>
-      </c>
-      <c r="I37">
-        <v>0.02215344547880138</v>
-      </c>
-      <c r="J37">
-        <v>0.02298124899417315</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>24.35245633333333</v>
-      </c>
-      <c r="N37">
-        <v>73.05736899999999</v>
-      </c>
-      <c r="O37">
-        <v>0.1150551060062118</v>
-      </c>
-      <c r="P37">
-        <v>0.126750214409196</v>
-      </c>
-      <c r="Q37">
-        <v>7.015374445652223</v>
-      </c>
-      <c r="R37">
-        <v>63.13837001087</v>
-      </c>
-      <c r="S37">
-        <v>0.002548867017966327</v>
-      </c>
-      <c r="T37">
-        <v>0.002912878237402566</v>
+        <v>0.000327562668168192</v>
       </c>
     </row>
   </sheetData>
